--- a/htdocs/App/Controllers/Traspasos/1485FWN.xlsx
+++ b/htdocs/App/Controllers/Traspasos/1485FWN.xlsx
@@ -31,13 +31,13 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>23-11-2017</t>
+    <t>22-02-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Xisco</t>
+    <t>Cristina</t>
   </si>
   <si>
     <t>Provisión</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-11-23</t>
+    <t>2018-02-22</t>
   </si>
   <si>
     <t>x</t>
@@ -79,7 +79,7 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>Sin confirmar</t>
+    <t>mundocars.2014@yahoo.es</t>
   </si>
   <si>
     <t>Tramitación Transferencia………………..</t>
@@ -94,10 +94,10 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>DIANA CHAPARRO</t>
-  </si>
-  <si>
-    <t>No disponible</t>
+    <t>Francisca Oliver</t>
+  </si>
+  <si>
+    <t>no disponible</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="57">
-        <v>663580355</v>
+        <v>2394</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
